--- a/test.xlsx
+++ b/test.xlsx
@@ -8,6 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Chromosome0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Chromosome1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Chromosome2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Chromosome3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Chromosome4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -356,11 +361,101 @@
     <row r="5">
       <c r="E5" t="inlineStr">
         <is>
-          <t>CE 587</t>
+          <t>Hi</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>